--- a/xlsxdata/Template.xlsx
+++ b/xlsxdata/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HalliwellM\Documents\dnd\Dice Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HalliwellM\Documents\dnd\Dice Data\3d-die-heatmap\xlsxdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB70E7E-D1C1-4BAB-B298-FBD8DC9AD528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC84BCA-B963-4AF2-BB10-9D688B370D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,28 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7600,7 +7578,7 @@
   <dimension ref="A1:AA110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L4" sqref="L4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7767,32 +7745,32 @@
       <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="e" cm="1">
-        <f t="array" ref="L4">_xlfn.MODE.MULT(B11:B1010)</f>
+      <c r="L4" s="3" t="e">
+        <f>_xlfn.TEXTJOIN(",",FALSE,_xlfn.MODE.MULT(B11:B1010))</f>
         <v>#N/A</v>
       </c>
-      <c r="M4" s="2" t="e" cm="1">
-        <f t="array" ref="M4">_xlfn.MODE.MULT(C11:C1010)</f>
+      <c r="M4" s="3" t="e">
+        <f t="shared" ref="M4:R4" si="2">_xlfn.TEXTJOIN(",",FALSE,_xlfn.MODE.MULT(C11:C1010))</f>
         <v>#N/A</v>
       </c>
-      <c r="N4" s="3" t="e" cm="1">
-        <f t="array" ref="N4">_xlfn.MODE.MULT(D11:D1010)</f>
+      <c r="N4" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="O4" s="2" t="e" cm="1">
-        <f t="array" ref="O4">_xlfn.MODE.MULT(E11:E1010)</f>
+      <c r="O4" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="P4" s="3" t="e" cm="1">
-        <f t="array" ref="P4">_xlfn.MODE.MULT(F11:F1010)</f>
+      <c r="P4" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="Q4" s="2" t="e" cm="1">
-        <f t="array" ref="Q4">_xlfn.MODE.MULT(G11:G1010)</f>
+      <c r="Q4" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="R4" s="3" t="e" cm="1">
-        <f t="array" ref="R4">_xlfn.MODE.MULT(H11:H1010)</f>
+      <c r="R4" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -7805,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:H5" si="2">COUNTIF(C11:C1010,C2)</f>
+        <f t="shared" ref="C5:H5" si="3">COUNTIF(C11:C1010,C2)</f>
         <v>0</v>
       </c>
       <c r="D5" s="3">
@@ -7813,19 +7791,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7838,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:H6" si="3">COUNTIF(C11:C1010,1)</f>
+        <f t="shared" ref="C6:H6" si="4">COUNTIF(C11:C1010,1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
@@ -7846,19 +7824,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -7916,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:H7" si="4">C10/C2</f>
+        <f t="shared" ref="C7:H7" si="5">C10/C2</f>
         <v>0</v>
       </c>
       <c r="D7" s="3">
@@ -7924,19 +7902,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -8139,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:H10" si="5">COUNT(C11:C110)</f>
+        <f t="shared" ref="C10:H10" si="6">COUNT(C11:C110)</f>
         <v>0</v>
       </c>
       <c r="D10" s="3">
@@ -8147,19 +8125,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
